--- a/data-set-3 (4).xlsx
+++ b/data-set-3 (4).xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petro_kaa/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\urako\0.DA\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08C7EB3-68B8-4549-8130-9A92C6C07DDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="520" windowWidth="28240" windowHeight="16400" xr2:uid="{47D0F105-3F28-644C-A77C-8B76445E38BE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,15 +110,9 @@
     <t>Great Britain</t>
   </si>
   <si>
-    <t>LuxVisage\nBielita</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
-    <t>Essence\nDr. Hauschka\nLogona\nAlcina\nCatrice\nSante\nArtdeco\nBenecos</t>
-  </si>
-  <si>
     <t>DEU</t>
   </si>
   <si>
@@ -135,18 +128,12 @@
     <t>ESP</t>
   </si>
   <si>
-    <t>Ninelle\nDeliplus</t>
-  </si>
-  <si>
     <t>Italy</t>
   </si>
   <si>
     <t>ITA</t>
   </si>
   <si>
-    <t>kiko milano\nPupa\nEva Mosaic\nDeborah</t>
-  </si>
-  <si>
     <t>Netherlands</t>
   </si>
   <si>
@@ -159,21 +146,12 @@
     <t>POL</t>
   </si>
   <si>
-    <t>INGLOT\nPaese\nBell</t>
-  </si>
-  <si>
     <t>Ukraine</t>
   </si>
   <si>
     <t>UKR</t>
   </si>
   <si>
-    <t>Color Me\nPudra</t>
-  </si>
-  <si>
-    <t>MAXI color\nBird\nEcoVego</t>
-  </si>
-  <si>
     <t>Finland</t>
   </si>
   <si>
@@ -183,12 +161,6 @@
     <t>France</t>
   </si>
   <si>
-    <t>Make up for ever\nLancome\nDior\nL'Oreal\nGuerlain\nGivenchy</t>
-  </si>
-  <si>
-    <t>Chanel\nEisenberg\nArcancil\nClarins\nVivienne Sabo</t>
-  </si>
-  <si>
     <t>Czechia</t>
   </si>
   <si>
@@ -216,16 +188,43 @@
     <t>FRA</t>
   </si>
   <si>
-    <t>Pirin Dream\nBODI D</t>
-  </si>
-  <si>
-    <t>Sleek MakeUp\n Barry M\nRouge Bunny Rouge</t>
+    <t>Pirin Dream, BODI D</t>
+  </si>
+  <si>
+    <t>Sleek MakeUp, Barry M, Rouge Bunny Rouge</t>
+  </si>
+  <si>
+    <t>Essence, Dr. Hauschka, Logona, Alcina, Catrice, Sante, Artdeco, Benecos</t>
+  </si>
+  <si>
+    <t>Ninelle, Deliplus</t>
+  </si>
+  <si>
+    <t>kiko milano, Pupa, Eva Mosaic, Deborah</t>
+  </si>
+  <si>
+    <t>INGLOT, Paese, Bell</t>
+  </si>
+  <si>
+    <t>MAXI color, Bird, EcoVego</t>
+  </si>
+  <si>
+    <t>Chanel, Eisenberg, Arcancil, Clarins, Vivienne Sabo</t>
+  </si>
+  <si>
+    <t>LuxVisage, Bielita</t>
+  </si>
+  <si>
+    <t>Color Me, Pudra</t>
+  </si>
+  <si>
+    <t>Make up for ever, Lancome, Dior, L'Oreal, Guerlain, Givenchy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -661,21 +660,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBC6C62-F6AB-9D4B-8236-70811A4252E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="73" customWidth="1"/>
-    <col min="4" max="4" width="67.6640625" customWidth="1"/>
+    <col min="4" max="4" width="67.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
@@ -692,7 +691,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -707,7 +706,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -715,7 +714,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>1</v>
@@ -724,7 +723,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -733,13 +732,13 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -750,140 +749,140 @@
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -895,12 +894,12 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>10</v>
@@ -912,12 +911,12 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
@@ -927,12 +926,12 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
@@ -942,97 +941,97 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
